--- a/dinos/jgs2018049_si_001.xlsx
+++ b/dinos/jgs2018049_si_001.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michiel/OneDrive - Hanzehogeschool Groningen/courses/R_courses/davur1/datasets/dinos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michiel/git_projects/datasets/dinos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D053B4D-9ACA-A94F-9EE9-1305E33F4C33}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{878AC5FB-E3E0-EF4A-81DE-01E273BCF715}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="3" r:id="rId1"/>
     <sheet name="Skeletons" sheetId="2" r:id="rId2"/>
     <sheet name="Footprints" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -25,7 +25,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="190">
   <si>
     <t>Formation</t>
   </si>
@@ -62,15 +64,6 @@
     <t>Total_gen</t>
   </si>
   <si>
-    <t>Ratio_AT</t>
-  </si>
-  <si>
-    <t>Ratio_DT</t>
-  </si>
-  <si>
-    <t>Ratio_DA</t>
-  </si>
-  <si>
     <t>Karoo</t>
   </si>
   <si>
@@ -566,24 +559,6 @@
     <t>Total_gen: Total number of tetrapod genera (sum of the above)</t>
   </si>
   <si>
-    <t>Ratio_AS_gen</t>
-  </si>
-  <si>
-    <t>Ratio_AT_gen</t>
-  </si>
-  <si>
-    <t>Ratio_DT_gen</t>
-  </si>
-  <si>
-    <t>Ratio_AS_spec</t>
-  </si>
-  <si>
-    <t>Ratio_AT_spec</t>
-  </si>
-  <si>
-    <t>Ratio_DT_spec</t>
-  </si>
-  <si>
     <t>Archosauromorph_spec: Number of specimens of Archosauromorpha</t>
   </si>
   <si>
@@ -605,24 +580,6 @@
     <t>Total_spec: Total number of tetrapod specimens (sum of the above)</t>
   </si>
   <si>
-    <t>Ratio_AS_spec: Ratio of archosauromorphs to synapsids</t>
-  </si>
-  <si>
-    <t>Ratio_AT_spec: Ratio of archosauromorph specimens to all tetrapod specimens</t>
-  </si>
-  <si>
-    <t>Ratio_DT_spec: Ratio of dinosaur specimens to all tetrapod specimens</t>
-  </si>
-  <si>
-    <t>Ratio_AS_gen: Ratio of archosauromorph genera to synapsid genera</t>
-  </si>
-  <si>
-    <t>Ratio_AT_gen: Ratio of archosauromorph genera to all tetrapod genera</t>
-  </si>
-  <si>
-    <t>Ratio_DT_gen: Ratio of dinosaur genera to all tetrapod genera</t>
-  </si>
-  <si>
     <t>Synapsida</t>
   </si>
   <si>
@@ -651,15 +608,6 @@
   </si>
   <si>
     <t>Total_gen: Total number of tetrapod ichnogenera (sum of the above)</t>
-  </si>
-  <si>
-    <t>Ratio_AS: Ratio of archosauromorph ichnogenera to synapsid ichnogenera</t>
-  </si>
-  <si>
-    <t>Ratio_AT: Ratio of archosauromorph ichnogenera to all tetrapod ichnogenera</t>
-  </si>
-  <si>
-    <t>Ratio_DT: Ratio of dinosaurian ichnogenera to all tetrapod ichnogenera</t>
   </si>
 </sst>
 </file>
@@ -1190,14 +1138,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1561,238 +1508,193 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:A52"/>
+  <dimension ref="A2:A43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="10"/>
+    <col min="1" max="16384" width="10.83203125" style="9"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" s="12" customFormat="1" ht="24">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:1" s="11" customFormat="1" ht="24">
+      <c r="A2" s="11" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" s="10" customFormat="1" ht="21">
+      <c r="A3" s="10" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="19">
+      <c r="A6" s="12" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="19">
+      <c r="A7" s="12"/>
+    </row>
+    <row r="8" spans="1:1" ht="19">
+      <c r="A8" s="12" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="19">
+      <c r="A10" s="13" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="9" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="3" spans="1:1" s="11" customFormat="1" ht="21">
-      <c r="A3" s="11" t="s">
+    <row r="13" spans="1:1">
+      <c r="A13" s="9" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="19">
-      <c r="A6" s="13" t="s">
+    <row r="14" spans="1:1">
+      <c r="A14" s="9" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="19">
-      <c r="A7" s="13"/>
-    </row>
-    <row r="8" spans="1:1" ht="19">
-      <c r="A8" s="13" t="s">
+    <row r="15" spans="1:1">
+      <c r="A15" s="9" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="9" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="9" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="9" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="9" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="9" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="9" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="19">
-      <c r="A10" s="14" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="10" t="s">
+    <row r="24" spans="1:1">
+      <c r="A24" s="9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="9" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="9" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="9" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="9" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="19">
+      <c r="A31" s="13" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="9" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="9" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="10" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="10" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="10" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="10" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="10" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="10" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="10" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="10" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="10" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="10" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="10" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="10" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="10" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="10" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="10" t="s">
+    <row r="37" spans="1:1">
+      <c r="A37" s="9" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="9" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="10" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="10" t="s">
+    <row r="39" spans="1:1">
+      <c r="A39" s="9" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="10" t="s">
+    <row r="40" spans="1:1">
+      <c r="A40" s="9" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="10" t="s">
+    <row r="41" spans="1:1">
+      <c r="A41" s="9" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="10" t="s">
+    <row r="42" spans="1:1">
+      <c r="A42" s="9" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="10" t="s">
+    <row r="43" spans="1:1">
+      <c r="A43" s="9" t="s">
         <v>189</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="10" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="10" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" ht="19">
-      <c r="A37" s="14" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="10" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="10" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="10" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="10" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="10" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="10" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="10" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="10" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="10" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" s="10" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="10" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="10" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="10" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" s="10" t="s">
-        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -1802,66 +1704,70 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:X46"/>
+  <dimension ref="A1:R46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="X1" sqref="X1"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="20.1640625" customWidth="1"/>
     <col min="2" max="2" width="25.83203125" customWidth="1"/>
+    <col min="5" max="5" width="22.5" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
+    <col min="12" max="12" width="21.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>176</v>
+        <v>79</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>178</v>
+        <v>80</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>160</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>83</v>
@@ -1869,34 +1775,16 @@
       <c r="R1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="S1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24">
-      <c r="A2" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="D2" s="4">
         <v>251.1</v>
@@ -1924,63 +1812,39 @@
         <f>SUM(E2+G2+J2)</f>
         <v>41</v>
       </c>
-      <c r="L2" s="6">
-        <f>SUM(E2/G2)</f>
-        <v>0.2</v>
-      </c>
-      <c r="M2" s="6">
-        <f>SUM(E2/K2)</f>
-        <v>9.7560975609756101E-2</v>
-      </c>
-      <c r="N2" s="6">
-        <f>SUM(F2/K2)</f>
-        <v>0</v>
+      <c r="L2" s="5">
+        <v>35</v>
+      </c>
+      <c r="M2" s="5">
+        <v>0</v>
+      </c>
+      <c r="N2" s="5">
+        <v>2711</v>
       </c>
       <c r="O2" s="5">
-        <v>35</v>
+        <v>606</v>
       </c>
       <c r="P2" s="5">
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="Q2" s="5">
-        <v>2711</v>
+        <f>SUM(O2:P2)</f>
+        <v>730</v>
       </c>
       <c r="R2" s="5">
-        <v>606</v>
-      </c>
-      <c r="S2" s="5">
-        <v>124</v>
-      </c>
-      <c r="T2" s="5">
-        <f>SUM(R2:S2)</f>
-        <v>730</v>
-      </c>
-      <c r="U2" s="5">
-        <f>SUM(O2+Q2+T2)</f>
+        <f>SUM(L2+N2+Q2)</f>
         <v>3476</v>
       </c>
-      <c r="V2" s="6">
-        <f>SUM(O2/Q2)</f>
-        <v>1.2910365178900774E-2</v>
-      </c>
-      <c r="W2" s="6">
-        <f>SUM(O2/U2)</f>
-        <v>1.0069044879171462E-2</v>
-      </c>
-      <c r="X2" s="6">
-        <f>SUM(P2/U2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24">
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>92</v>
       </c>
       <c r="D3" s="4">
         <v>251.1</v>
@@ -2008,63 +1872,39 @@
         <f t="shared" ref="K3:K46" si="1">SUM(E3+G3+J3)</f>
         <v>11</v>
       </c>
-      <c r="L3" s="6">
-        <f t="shared" ref="L3:L46" si="2">SUM(E3/G3)</f>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="M3" s="6">
-        <f t="shared" ref="M3:M46" si="3">SUM(E3/K3)</f>
-        <v>9.0909090909090912E-2</v>
-      </c>
-      <c r="N3" s="6">
-        <f t="shared" ref="N3:N46" si="4">SUM(F3/K3)</f>
-        <v>0</v>
+      <c r="L3" s="5">
+        <v>17</v>
+      </c>
+      <c r="M3" s="5">
+        <v>0</v>
+      </c>
+      <c r="N3" s="5">
+        <v>93</v>
       </c>
       <c r="O3" s="5">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="P3" s="5">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Q3" s="5">
-        <v>93</v>
+        <f t="shared" ref="Q3:Q46" si="2">SUM(O3:P3)</f>
+        <v>21</v>
       </c>
       <c r="R3" s="5">
-        <v>12</v>
-      </c>
-      <c r="S3" s="5">
-        <v>9</v>
-      </c>
-      <c r="T3" s="5">
-        <f t="shared" ref="T3:T46" si="5">SUM(R3:S3)</f>
-        <v>21</v>
-      </c>
-      <c r="U3" s="5">
-        <f t="shared" ref="U3:U46" si="6">SUM(O3+Q3+T3)</f>
+        <f t="shared" ref="R3:R46" si="3">SUM(L3+N3+Q3)</f>
         <v>131</v>
       </c>
-      <c r="V3" s="6">
-        <f t="shared" ref="V3:V46" si="7">SUM(O3/Q3)</f>
-        <v>0.18279569892473119</v>
-      </c>
-      <c r="W3" s="6">
-        <f t="shared" ref="W3:W46" si="8">SUM(O3/U3)</f>
-        <v>0.12977099236641221</v>
-      </c>
-      <c r="X3" s="6">
-        <f t="shared" ref="X3:X46" si="9">SUM(P3/U3)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24">
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>92</v>
       </c>
       <c r="D4" s="4">
         <v>251.1</v>
@@ -2092,63 +1932,39 @@
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4" s="5">
+        <v>4</v>
+      </c>
+      <c r="M4" s="5">
+        <v>0</v>
+      </c>
+      <c r="N4" s="5">
+        <v>3</v>
+      </c>
+      <c r="O4" s="5">
+        <v>0</v>
+      </c>
+      <c r="P4" s="5">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="5">
         <f t="shared" si="2"/>
-        <v>3.8461538461538464E-2</v>
-      </c>
-      <c r="M4" s="6">
+        <v>12</v>
+      </c>
+      <c r="R4" s="5">
         <f t="shared" si="3"/>
-        <v>3.125E-2</v>
-      </c>
-      <c r="N4" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O4" s="5">
-        <v>4</v>
-      </c>
-      <c r="P4" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="5">
-        <v>3</v>
-      </c>
-      <c r="R4" s="5">
-        <v>0</v>
-      </c>
-      <c r="S4" s="5">
-        <v>12</v>
-      </c>
-      <c r="T4" s="5">
-        <f t="shared" si="5"/>
-        <v>12</v>
-      </c>
-      <c r="U4" s="5">
-        <f t="shared" si="6"/>
         <v>19</v>
       </c>
-      <c r="V4" s="6">
-        <f t="shared" si="7"/>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="W4" s="6">
-        <f t="shared" si="8"/>
-        <v>0.21052631578947367</v>
-      </c>
-      <c r="X4" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24">
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>92</v>
       </c>
       <c r="D5" s="4">
         <v>251.1</v>
@@ -2176,65 +1992,41 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="L5" s="6" t="e">
+      <c r="L5" s="5">
+        <v>5</v>
+      </c>
+      <c r="M5" s="5">
+        <v>0</v>
+      </c>
+      <c r="N5" s="5">
+        <v>0</v>
+      </c>
+      <c r="O5" s="5">
+        <v>2</v>
+      </c>
+      <c r="P5" s="5">
+        <v>60</v>
+      </c>
+      <c r="Q5" s="5">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M5" s="6">
+        <v>62</v>
+      </c>
+      <c r="R5" s="5">
         <f t="shared" si="3"/>
-        <v>0.375</v>
-      </c>
-      <c r="N5" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O5" s="5">
-        <v>5</v>
-      </c>
-      <c r="P5" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="5">
-        <v>0</v>
-      </c>
-      <c r="R5" s="5">
-        <v>2</v>
-      </c>
-      <c r="S5" s="5">
-        <v>60</v>
-      </c>
-      <c r="T5" s="5">
-        <f t="shared" si="5"/>
-        <v>62</v>
-      </c>
-      <c r="U5" s="5">
-        <f t="shared" si="6"/>
         <v>67</v>
       </c>
-      <c r="V5" s="6" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W5" s="6">
-        <f t="shared" si="8"/>
-        <v>7.4626865671641784E-2</v>
-      </c>
-      <c r="X5" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24">
-      <c r="A6" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="D6" s="9">
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" s="8">
         <v>249.7</v>
       </c>
       <c r="E6" s="5">
@@ -2260,65 +2052,41 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="L6" s="6" t="e">
+      <c r="L6" s="5">
+        <v>13</v>
+      </c>
+      <c r="M6" s="5">
+        <v>0</v>
+      </c>
+      <c r="N6" s="5">
+        <v>0</v>
+      </c>
+      <c r="O6" s="5">
+        <v>2</v>
+      </c>
+      <c r="P6" s="5">
+        <v>49</v>
+      </c>
+      <c r="Q6" s="5">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M6" s="6">
+        <v>51</v>
+      </c>
+      <c r="R6" s="5">
         <f t="shared" si="3"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="N6" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O6" s="5">
-        <v>13</v>
-      </c>
-      <c r="P6" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="5">
-        <v>0</v>
-      </c>
-      <c r="R6" s="5">
-        <v>2</v>
-      </c>
-      <c r="S6" s="5">
-        <v>49</v>
-      </c>
-      <c r="T6" s="5">
-        <f t="shared" si="5"/>
-        <v>51</v>
-      </c>
-      <c r="U6" s="5">
-        <f t="shared" si="6"/>
         <v>64</v>
       </c>
-      <c r="V6" s="6" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W6" s="6">
-        <f t="shared" si="8"/>
-        <v>0.203125</v>
-      </c>
-      <c r="X6" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24">
-      <c r="A7" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="D7" s="9">
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" s="8">
         <v>249.7</v>
       </c>
       <c r="E7" s="5">
@@ -2344,63 +2112,39 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="L7" s="6" t="e">
+      <c r="L7" s="5">
+        <v>6</v>
+      </c>
+      <c r="M7" s="5">
+        <v>0</v>
+      </c>
+      <c r="N7" s="5">
+        <v>0</v>
+      </c>
+      <c r="O7" s="5">
+        <v>2</v>
+      </c>
+      <c r="P7" s="5">
+        <v>42</v>
+      </c>
+      <c r="Q7" s="5">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M7" s="6">
+        <v>44</v>
+      </c>
+      <c r="R7" s="5">
         <f t="shared" si="3"/>
-        <v>0.23076923076923078</v>
-      </c>
-      <c r="N7" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O7" s="5">
-        <v>6</v>
-      </c>
-      <c r="P7" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="5">
-        <v>0</v>
-      </c>
-      <c r="R7" s="5">
-        <v>2</v>
-      </c>
-      <c r="S7" s="5">
-        <v>42</v>
-      </c>
-      <c r="T7" s="5">
-        <f t="shared" si="5"/>
-        <v>44</v>
-      </c>
-      <c r="U7" s="5">
-        <f t="shared" si="6"/>
         <v>50</v>
       </c>
-      <c r="V7" s="6" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W7" s="6">
-        <f t="shared" si="8"/>
-        <v>0.12</v>
-      </c>
-      <c r="X7" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24">
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D8" s="4">
         <v>247.8</v>
@@ -2428,63 +2172,39 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="L8" s="6">
+      <c r="L8" s="5">
+        <v>37</v>
+      </c>
+      <c r="M8" s="5">
+        <v>0</v>
+      </c>
+      <c r="N8" s="5">
+        <v>19</v>
+      </c>
+      <c r="O8" s="5">
+        <v>6</v>
+      </c>
+      <c r="P8" s="5">
+        <v>50</v>
+      </c>
+      <c r="Q8" s="5">
         <f t="shared" si="2"/>
-        <v>0.25</v>
-      </c>
-      <c r="M8" s="6">
+        <v>56</v>
+      </c>
+      <c r="R8" s="5">
         <f t="shared" si="3"/>
-        <v>0.1</v>
-      </c>
-      <c r="N8" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O8" s="5">
-        <v>37</v>
-      </c>
-      <c r="P8" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="5">
-        <v>19</v>
-      </c>
-      <c r="R8" s="5">
-        <v>6</v>
-      </c>
-      <c r="S8" s="5">
-        <v>50</v>
-      </c>
-      <c r="T8" s="5">
-        <f t="shared" si="5"/>
-        <v>56</v>
-      </c>
-      <c r="U8" s="5">
-        <f t="shared" si="6"/>
         <v>112</v>
       </c>
-      <c r="V8" s="6">
-        <f t="shared" si="7"/>
-        <v>1.9473684210526316</v>
-      </c>
-      <c r="W8" s="6">
-        <f t="shared" si="8"/>
-        <v>0.33035714285714285</v>
-      </c>
-      <c r="X8" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24">
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D9" s="4">
         <v>247.8</v>
@@ -2512,63 +2232,39 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="L9" s="6" t="e">
+      <c r="L9" s="5">
+        <v>3</v>
+      </c>
+      <c r="M9" s="5">
+        <v>0</v>
+      </c>
+      <c r="N9" s="5">
+        <v>0</v>
+      </c>
+      <c r="O9" s="5">
+        <v>0</v>
+      </c>
+      <c r="P9" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q9" s="5">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M9" s="6">
+        <v>11</v>
+      </c>
+      <c r="R9" s="5">
         <f t="shared" si="3"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="N9" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O9" s="5">
-        <v>3</v>
-      </c>
-      <c r="P9" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="5">
-        <v>0</v>
-      </c>
-      <c r="R9" s="5">
-        <v>0</v>
-      </c>
-      <c r="S9" s="5">
-        <v>11</v>
-      </c>
-      <c r="T9" s="5">
-        <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="U9" s="5">
-        <f t="shared" si="6"/>
         <v>14</v>
       </c>
-      <c r="V9" s="6" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W9" s="6">
-        <f t="shared" si="8"/>
-        <v>0.21428571428571427</v>
-      </c>
-      <c r="X9" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24">
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D10" s="4">
         <v>247.8</v>
@@ -2596,65 +2292,41 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="L10" s="6">
+      <c r="L10" s="5">
+        <v>14</v>
+      </c>
+      <c r="M10" s="5">
+        <v>0</v>
+      </c>
+      <c r="N10" s="5">
+        <v>2</v>
+      </c>
+      <c r="O10" s="5">
+        <v>3</v>
+      </c>
+      <c r="P10" s="5">
+        <v>25</v>
+      </c>
+      <c r="Q10" s="5">
         <f t="shared" si="2"/>
-        <v>1.5</v>
-      </c>
-      <c r="M10" s="6">
+        <v>28</v>
+      </c>
+      <c r="R10" s="5">
         <f t="shared" si="3"/>
-        <v>0.1875</v>
-      </c>
-      <c r="N10" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O10" s="5">
-        <v>14</v>
-      </c>
-      <c r="P10" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="5">
-        <v>2</v>
-      </c>
-      <c r="R10" s="5">
-        <v>3</v>
-      </c>
-      <c r="S10" s="5">
-        <v>25</v>
-      </c>
-      <c r="T10" s="5">
-        <f t="shared" si="5"/>
-        <v>28</v>
-      </c>
-      <c r="U10" s="5">
-        <f t="shared" si="6"/>
         <v>44</v>
       </c>
-      <c r="V10" s="6">
-        <f t="shared" si="7"/>
-        <v>7</v>
-      </c>
-      <c r="W10" s="6">
-        <f t="shared" si="8"/>
-        <v>0.31818181818181818</v>
-      </c>
-      <c r="X10" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24">
-      <c r="A11" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="D11" s="9">
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D11" s="8">
         <v>245.7</v>
       </c>
       <c r="E11" s="5">
@@ -2680,65 +2352,41 @@
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="L11" s="6">
+      <c r="L11" s="5">
+        <v>78</v>
+      </c>
+      <c r="M11" s="5">
+        <v>0</v>
+      </c>
+      <c r="N11" s="5">
+        <v>508</v>
+      </c>
+      <c r="O11" s="5">
+        <v>13</v>
+      </c>
+      <c r="P11" s="5">
+        <v>48</v>
+      </c>
+      <c r="Q11" s="5">
         <f t="shared" si="2"/>
-        <v>0.4</v>
-      </c>
-      <c r="M11" s="6">
+        <v>61</v>
+      </c>
+      <c r="R11" s="5">
         <f t="shared" si="3"/>
-        <v>0.15384615384615385</v>
-      </c>
-      <c r="N11" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O11" s="5">
-        <v>78</v>
-      </c>
-      <c r="P11" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="5">
-        <v>508</v>
-      </c>
-      <c r="R11" s="5">
-        <v>13</v>
-      </c>
-      <c r="S11" s="5">
-        <v>48</v>
-      </c>
-      <c r="T11" s="5">
-        <f t="shared" si="5"/>
-        <v>61</v>
-      </c>
-      <c r="U11" s="5">
-        <f t="shared" si="6"/>
         <v>647</v>
       </c>
-      <c r="V11" s="6">
-        <f t="shared" si="7"/>
-        <v>0.15354330708661418</v>
-      </c>
-      <c r="W11" s="6">
-        <f t="shared" si="8"/>
-        <v>0.12055641421947449</v>
-      </c>
-      <c r="X11" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24">
-      <c r="A12" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="D12" s="9">
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D12" s="8">
         <v>245.7</v>
       </c>
       <c r="E12" s="5">
@@ -2764,63 +2412,39 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="L12" s="6">
+      <c r="L12" s="5">
+        <v>17</v>
+      </c>
+      <c r="M12" s="5">
+        <v>0</v>
+      </c>
+      <c r="N12" s="5">
+        <v>1</v>
+      </c>
+      <c r="O12" s="5">
+        <v>0</v>
+      </c>
+      <c r="P12" s="5">
+        <v>42</v>
+      </c>
+      <c r="Q12" s="5">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="M12" s="6">
+        <v>42</v>
+      </c>
+      <c r="R12" s="5">
         <f t="shared" si="3"/>
-        <v>0.44444444444444442</v>
-      </c>
-      <c r="N12" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O12" s="5">
-        <v>17</v>
-      </c>
-      <c r="P12" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="5">
-        <v>1</v>
-      </c>
-      <c r="R12" s="5">
-        <v>0</v>
-      </c>
-      <c r="S12" s="5">
-        <v>42</v>
-      </c>
-      <c r="T12" s="5">
-        <f t="shared" si="5"/>
-        <v>42</v>
-      </c>
-      <c r="U12" s="5">
-        <f t="shared" si="6"/>
         <v>60</v>
       </c>
-      <c r="V12" s="6">
-        <f t="shared" si="7"/>
-        <v>17</v>
-      </c>
-      <c r="W12" s="6">
-        <f t="shared" si="8"/>
-        <v>0.28333333333333333</v>
-      </c>
-      <c r="X12" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24">
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D13" s="4">
         <v>242.9</v>
@@ -2848,63 +2472,39 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="L13" s="6">
+      <c r="L13" s="5">
+        <v>0</v>
+      </c>
+      <c r="M13" s="5">
+        <v>0</v>
+      </c>
+      <c r="N13" s="5">
+        <v>11</v>
+      </c>
+      <c r="O13" s="5">
+        <v>0</v>
+      </c>
+      <c r="P13" s="5">
+        <v>3</v>
+      </c>
+      <c r="Q13" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M13" s="6">
+        <v>3</v>
+      </c>
+      <c r="R13" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N13" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O13" s="5">
-        <v>0</v>
-      </c>
-      <c r="P13" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="5">
-        <v>11</v>
-      </c>
-      <c r="R13" s="5">
-        <v>0</v>
-      </c>
-      <c r="S13" s="5">
-        <v>3</v>
-      </c>
-      <c r="T13" s="5">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="U13" s="5">
-        <f t="shared" si="6"/>
         <v>14</v>
       </c>
-      <c r="V13" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="W13" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="X13" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24">
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D14" s="4">
         <v>242.9</v>
@@ -2932,63 +2532,39 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="L14" s="6">
+      <c r="L14" s="5">
+        <v>63</v>
+      </c>
+      <c r="M14" s="5">
+        <v>2</v>
+      </c>
+      <c r="N14" s="5">
+        <v>34</v>
+      </c>
+      <c r="O14" s="5">
+        <v>0</v>
+      </c>
+      <c r="P14" s="5">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="5">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="M14" s="6">
+        <v>4</v>
+      </c>
+      <c r="R14" s="5">
         <f t="shared" si="3"/>
-        <v>0.46153846153846156</v>
-      </c>
-      <c r="N14" s="6">
-        <f t="shared" si="4"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="O14" s="5">
-        <v>63</v>
-      </c>
-      <c r="P14" s="5">
-        <v>2</v>
-      </c>
-      <c r="Q14" s="5">
-        <v>34</v>
-      </c>
-      <c r="R14" s="5">
-        <v>0</v>
-      </c>
-      <c r="S14" s="5">
-        <v>4</v>
-      </c>
-      <c r="T14" s="5">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="U14" s="5">
-        <f t="shared" si="6"/>
         <v>101</v>
       </c>
-      <c r="V14" s="6">
-        <f t="shared" si="7"/>
-        <v>1.8529411764705883</v>
-      </c>
-      <c r="W14" s="6">
-        <f t="shared" si="8"/>
-        <v>0.62376237623762376</v>
-      </c>
-      <c r="X14" s="6">
-        <f t="shared" si="9"/>
-        <v>1.9801980198019802E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24">
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D15" s="4">
         <v>242.9</v>
@@ -3016,63 +2592,39 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="L15" s="6">
+      <c r="L15" s="5">
+        <v>10</v>
+      </c>
+      <c r="M15" s="5">
+        <v>0</v>
+      </c>
+      <c r="N15" s="5">
+        <v>33</v>
+      </c>
+      <c r="O15" s="5">
+        <v>0</v>
+      </c>
+      <c r="P15" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="5">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="M15" s="6">
+      <c r="R15" s="5">
         <f t="shared" si="3"/>
-        <v>0.42857142857142855</v>
-      </c>
-      <c r="N15" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O15" s="5">
-        <v>10</v>
-      </c>
-      <c r="P15" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="5">
-        <v>33</v>
-      </c>
-      <c r="R15" s="5">
-        <v>0</v>
-      </c>
-      <c r="S15" s="5">
-        <v>1</v>
-      </c>
-      <c r="T15" s="5">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="U15" s="5">
-        <f t="shared" si="6"/>
         <v>44</v>
       </c>
-      <c r="V15" s="6">
-        <f t="shared" si="7"/>
-        <v>0.30303030303030304</v>
-      </c>
-      <c r="W15" s="6">
-        <f t="shared" si="8"/>
-        <v>0.22727272727272727</v>
-      </c>
-      <c r="X15" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24">
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D16" s="4">
         <v>242.9</v>
@@ -3100,65 +2652,41 @@
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="L16" s="6">
+      <c r="L16" s="5">
+        <v>11</v>
+      </c>
+      <c r="M16" s="5">
+        <v>0</v>
+      </c>
+      <c r="N16" s="5">
+        <v>16</v>
+      </c>
+      <c r="O16" s="5">
+        <v>1</v>
+      </c>
+      <c r="P16" s="5">
+        <v>19</v>
+      </c>
+      <c r="Q16" s="5">
         <f t="shared" si="2"/>
-        <v>0.54545454545454541</v>
-      </c>
-      <c r="M16" s="6">
+        <v>20</v>
+      </c>
+      <c r="R16" s="5">
         <f t="shared" si="3"/>
-        <v>0.2608695652173913</v>
-      </c>
-      <c r="N16" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O16" s="5">
-        <v>11</v>
-      </c>
-      <c r="P16" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="5">
-        <v>16</v>
-      </c>
-      <c r="R16" s="5">
-        <v>1</v>
-      </c>
-      <c r="S16" s="5">
-        <v>19</v>
-      </c>
-      <c r="T16" s="5">
-        <f t="shared" si="5"/>
-        <v>20</v>
-      </c>
-      <c r="U16" s="5">
-        <f t="shared" si="6"/>
         <v>47</v>
       </c>
-      <c r="V16" s="6">
-        <f t="shared" si="7"/>
-        <v>0.6875</v>
-      </c>
-      <c r="W16" s="6">
-        <f t="shared" si="8"/>
-        <v>0.23404255319148937</v>
-      </c>
-      <c r="X16" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24">
-      <c r="A17" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="D17" s="9">
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D17" s="8">
         <v>240.4</v>
       </c>
       <c r="E17" s="5">
@@ -3184,63 +2712,39 @@
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="L17" s="6">
+      <c r="L17" s="5">
+        <v>55</v>
+      </c>
+      <c r="M17" s="5">
+        <v>0</v>
+      </c>
+      <c r="N17" s="5">
+        <v>107</v>
+      </c>
+      <c r="O17" s="5">
+        <v>0</v>
+      </c>
+      <c r="P17" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="5">
         <f t="shared" si="2"/>
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="M17" s="6">
+        <v>0</v>
+      </c>
+      <c r="R17" s="5">
         <f t="shared" si="3"/>
-        <v>0.35483870967741937</v>
-      </c>
-      <c r="N17" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O17" s="5">
-        <v>55</v>
-      </c>
-      <c r="P17" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="5">
-        <v>107</v>
-      </c>
-      <c r="R17" s="5">
-        <v>0</v>
-      </c>
-      <c r="S17" s="5">
-        <v>0</v>
-      </c>
-      <c r="T17" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="U17" s="5">
-        <f t="shared" si="6"/>
         <v>162</v>
       </c>
-      <c r="V17" s="6">
-        <f t="shared" si="7"/>
-        <v>0.51401869158878499</v>
-      </c>
-      <c r="W17" s="6">
-        <f t="shared" si="8"/>
-        <v>0.33950617283950618</v>
-      </c>
-      <c r="X17" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24">
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D18" s="4">
         <v>238.1</v>
@@ -3268,63 +2772,39 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="L18" s="6">
+      <c r="L18" s="5">
+        <v>15</v>
+      </c>
+      <c r="M18" s="5">
+        <v>0</v>
+      </c>
+      <c r="N18" s="5">
+        <v>1</v>
+      </c>
+      <c r="O18" s="5">
+        <v>0</v>
+      </c>
+      <c r="P18" s="5">
+        <v>155</v>
+      </c>
+      <c r="Q18" s="5">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="M18" s="6">
+        <v>155</v>
+      </c>
+      <c r="R18" s="5">
         <f t="shared" si="3"/>
-        <v>0.23076923076923078</v>
-      </c>
-      <c r="N18" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O18" s="5">
-        <v>15</v>
-      </c>
-      <c r="P18" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="5">
-        <v>1</v>
-      </c>
-      <c r="R18" s="5">
-        <v>0</v>
-      </c>
-      <c r="S18" s="5">
-        <v>155</v>
-      </c>
-      <c r="T18" s="5">
-        <f t="shared" si="5"/>
-        <v>155</v>
-      </c>
-      <c r="U18" s="5">
-        <f t="shared" si="6"/>
         <v>171</v>
       </c>
-      <c r="V18" s="6">
-        <f t="shared" si="7"/>
-        <v>15</v>
-      </c>
-      <c r="W18" s="6">
-        <f t="shared" si="8"/>
-        <v>8.771929824561403E-2</v>
-      </c>
-      <c r="X18" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24">
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D19" s="4">
         <v>238.1</v>
@@ -3352,65 +2832,41 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="L19" s="6">
+      <c r="L19" s="5">
+        <v>7</v>
+      </c>
+      <c r="M19" s="5">
+        <v>0</v>
+      </c>
+      <c r="N19" s="5">
+        <v>2</v>
+      </c>
+      <c r="O19" s="5">
+        <v>0</v>
+      </c>
+      <c r="P19" s="5">
+        <v>8</v>
+      </c>
+      <c r="Q19" s="5">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="M19" s="6">
+        <v>8</v>
+      </c>
+      <c r="R19" s="5">
         <f t="shared" si="3"/>
-        <v>0.30769230769230771</v>
-      </c>
-      <c r="N19" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O19" s="5">
-        <v>7</v>
-      </c>
-      <c r="P19" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="5">
-        <v>2</v>
-      </c>
-      <c r="R19" s="5">
-        <v>0</v>
-      </c>
-      <c r="S19" s="5">
-        <v>8</v>
-      </c>
-      <c r="T19" s="5">
-        <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="U19" s="5">
-        <f t="shared" si="6"/>
         <v>17</v>
       </c>
-      <c r="V19" s="6">
-        <f t="shared" si="7"/>
-        <v>3.5</v>
-      </c>
-      <c r="W19" s="6">
-        <f t="shared" si="8"/>
-        <v>0.41176470588235292</v>
-      </c>
-      <c r="X19" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24">
-      <c r="A20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="D20" s="9">
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D20" s="8">
         <v>236.4</v>
       </c>
       <c r="E20" s="5">
@@ -3436,63 +2892,39 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="L20" s="6">
+      <c r="L20" s="5">
+        <v>22</v>
+      </c>
+      <c r="M20" s="5">
+        <v>0</v>
+      </c>
+      <c r="N20" s="5">
+        <v>63</v>
+      </c>
+      <c r="O20" s="5">
+        <v>3</v>
+      </c>
+      <c r="P20" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="5">
         <f t="shared" si="2"/>
-        <v>0.54545454545454541</v>
-      </c>
-      <c r="M20" s="6">
+        <v>3</v>
+      </c>
+      <c r="R20" s="5">
         <f t="shared" si="3"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="N20" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O20" s="5">
-        <v>22</v>
-      </c>
-      <c r="P20" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="5">
-        <v>63</v>
-      </c>
-      <c r="R20" s="5">
-        <v>3</v>
-      </c>
-      <c r="S20" s="5">
-        <v>0</v>
-      </c>
-      <c r="T20" s="5">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="U20" s="5">
-        <f t="shared" si="6"/>
         <v>88</v>
       </c>
-      <c r="V20" s="6">
-        <f t="shared" si="7"/>
-        <v>0.34920634920634919</v>
-      </c>
-      <c r="W20" s="6">
-        <f t="shared" si="8"/>
-        <v>0.25</v>
-      </c>
-      <c r="X20" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24">
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D21" s="4">
         <v>235.8</v>
@@ -3520,63 +2952,39 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="L21" s="6">
+      <c r="L21" s="5">
+        <v>0</v>
+      </c>
+      <c r="M21" s="5">
+        <v>0</v>
+      </c>
+      <c r="N21" s="5">
+        <v>11</v>
+      </c>
+      <c r="O21" s="5">
+        <v>0</v>
+      </c>
+      <c r="P21" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M21" s="6">
+      <c r="R21" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N21" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O21" s="5">
-        <v>0</v>
-      </c>
-      <c r="P21" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="5">
         <v>11</v>
       </c>
-      <c r="R21" s="5">
-        <v>0</v>
-      </c>
-      <c r="S21" s="5">
-        <v>0</v>
-      </c>
-      <c r="T21" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="U21" s="5">
-        <f t="shared" si="6"/>
-        <v>11</v>
-      </c>
-      <c r="V21" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="W21" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="X21" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24">
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D22" s="4">
         <v>235.8</v>
@@ -3604,65 +3012,41 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="L22" s="6">
+      <c r="L22" s="5">
+        <v>2</v>
+      </c>
+      <c r="M22" s="5">
+        <v>0</v>
+      </c>
+      <c r="N22" s="5">
+        <v>1</v>
+      </c>
+      <c r="O22" s="5">
+        <v>0</v>
+      </c>
+      <c r="P22" s="5">
+        <v>62</v>
+      </c>
+      <c r="Q22" s="5">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="M22" s="6">
+        <v>62</v>
+      </c>
+      <c r="R22" s="5">
         <f t="shared" si="3"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="N22" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O22" s="5">
-        <v>2</v>
-      </c>
-      <c r="P22" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="5">
-        <v>1</v>
-      </c>
-      <c r="R22" s="5">
-        <v>0</v>
-      </c>
-      <c r="S22" s="5">
-        <v>62</v>
-      </c>
-      <c r="T22" s="5">
-        <f t="shared" si="5"/>
-        <v>62</v>
-      </c>
-      <c r="U22" s="5">
-        <f t="shared" si="6"/>
         <v>65</v>
       </c>
-      <c r="V22" s="6">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="W22" s="6">
-        <f t="shared" si="8"/>
-        <v>3.0769230769230771E-2</v>
-      </c>
-      <c r="X22" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24">
-      <c r="A23" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="B23" s="7" t="s">
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="C23" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="D23" s="9">
+      <c r="B23" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D23" s="8">
         <v>230.9</v>
       </c>
       <c r="E23" s="5">
@@ -3688,65 +3072,41 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="L23" s="6">
+      <c r="L23" s="5">
+        <v>74</v>
+      </c>
+      <c r="M23" s="5">
+        <v>1</v>
+      </c>
+      <c r="N23" s="5">
+        <v>2</v>
+      </c>
+      <c r="O23" s="5">
+        <v>0</v>
+      </c>
+      <c r="P23" s="5">
+        <v>18</v>
+      </c>
+      <c r="Q23" s="5">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="M23" s="6">
+        <v>18</v>
+      </c>
+      <c r="R23" s="5">
         <f t="shared" si="3"/>
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="N23" s="6">
-        <f t="shared" si="4"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="O23" s="5">
-        <v>74</v>
-      </c>
-      <c r="P23" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q23" s="5">
-        <v>2</v>
-      </c>
-      <c r="R23" s="5">
-        <v>0</v>
-      </c>
-      <c r="S23" s="5">
-        <v>18</v>
-      </c>
-      <c r="T23" s="5">
-        <f t="shared" si="5"/>
-        <v>18</v>
-      </c>
-      <c r="U23" s="5">
-        <f t="shared" si="6"/>
         <v>94</v>
       </c>
-      <c r="V23" s="6">
-        <f t="shared" si="7"/>
-        <v>37</v>
-      </c>
-      <c r="W23" s="6">
-        <f t="shared" si="8"/>
-        <v>0.78723404255319152</v>
-      </c>
-      <c r="X23" s="6">
-        <f t="shared" si="9"/>
-        <v>1.0638297872340425E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24">
-      <c r="A24" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="D24" s="9">
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D24" s="8">
         <v>230.9</v>
       </c>
       <c r="E24" s="5">
@@ -3772,65 +3132,41 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="L24" s="6" t="e">
+      <c r="L24" s="5">
+        <v>100</v>
+      </c>
+      <c r="M24" s="5">
+        <v>1</v>
+      </c>
+      <c r="N24" s="5">
+        <v>0</v>
+      </c>
+      <c r="O24" s="5">
+        <v>30</v>
+      </c>
+      <c r="P24" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="5">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M24" s="6">
+        <v>30</v>
+      </c>
+      <c r="R24" s="5">
         <f t="shared" si="3"/>
-        <v>0.875</v>
-      </c>
-      <c r="N24" s="6">
-        <f t="shared" si="4"/>
-        <v>0.125</v>
-      </c>
-      <c r="O24" s="5">
-        <v>100</v>
-      </c>
-      <c r="P24" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q24" s="5">
-        <v>0</v>
-      </c>
-      <c r="R24" s="5">
-        <v>30</v>
-      </c>
-      <c r="S24" s="5">
-        <v>0</v>
-      </c>
-      <c r="T24" s="5">
-        <f t="shared" si="5"/>
-        <v>30</v>
-      </c>
-      <c r="U24" s="5">
-        <f t="shared" si="6"/>
         <v>130</v>
       </c>
-      <c r="V24" s="6" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W24" s="6">
-        <f t="shared" si="8"/>
-        <v>0.76923076923076927</v>
-      </c>
-      <c r="X24" s="6">
-        <f t="shared" si="9"/>
-        <v>7.6923076923076927E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24">
-      <c r="A25" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="D25" s="9">
+    </row>
+    <row r="25" spans="1:18">
+      <c r="A25" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D25" s="8">
         <v>230.9</v>
       </c>
       <c r="E25" s="5">
@@ -3856,65 +3192,41 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="L25" s="6">
+      <c r="L25" s="5">
+        <v>14</v>
+      </c>
+      <c r="M25" s="5">
+        <v>0</v>
+      </c>
+      <c r="N25" s="5">
+        <v>2</v>
+      </c>
+      <c r="O25" s="5">
+        <v>0</v>
+      </c>
+      <c r="P25" s="5">
+        <v>2</v>
+      </c>
+      <c r="Q25" s="5">
         <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="M25" s="6">
+        <v>2</v>
+      </c>
+      <c r="R25" s="5">
         <f t="shared" si="3"/>
-        <v>0.77777777777777779</v>
-      </c>
-      <c r="N25" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O25" s="5">
-        <v>14</v>
-      </c>
-      <c r="P25" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="5">
-        <v>2</v>
-      </c>
-      <c r="R25" s="5">
-        <v>0</v>
-      </c>
-      <c r="S25" s="5">
-        <v>2</v>
-      </c>
-      <c r="T25" s="5">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="U25" s="5">
-        <f t="shared" si="6"/>
         <v>18</v>
       </c>
-      <c r="V25" s="6">
-        <f t="shared" si="7"/>
-        <v>7</v>
-      </c>
-      <c r="W25" s="6">
-        <f t="shared" si="8"/>
-        <v>0.77777777777777779</v>
-      </c>
-      <c r="X25" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:24">
-      <c r="A26" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="C26" s="8" t="s">
+    </row>
+    <row r="26" spans="1:18">
+      <c r="A26" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="D26" s="9">
+      <c r="B26" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D26" s="8">
         <v>230.9</v>
       </c>
       <c r="E26" s="5">
@@ -3940,65 +3252,41 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="L26" s="6">
+      <c r="L26" s="5">
+        <v>173</v>
+      </c>
+      <c r="M26" s="5">
+        <v>6</v>
+      </c>
+      <c r="N26" s="5">
+        <v>8</v>
+      </c>
+      <c r="O26" s="5">
+        <v>0</v>
+      </c>
+      <c r="P26" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="5">
         <f t="shared" si="2"/>
-        <v>1.8333333333333333</v>
-      </c>
-      <c r="M26" s="6">
+        <v>1</v>
+      </c>
+      <c r="R26" s="5">
         <f t="shared" si="3"/>
-        <v>0.61111111111111116</v>
-      </c>
-      <c r="N26" s="6">
-        <f t="shared" si="4"/>
-        <v>0.22222222222222221</v>
-      </c>
-      <c r="O26" s="5">
-        <v>173</v>
-      </c>
-      <c r="P26" s="5">
-        <v>6</v>
-      </c>
-      <c r="Q26" s="5">
-        <v>8</v>
-      </c>
-      <c r="R26" s="5">
-        <v>0</v>
-      </c>
-      <c r="S26" s="5">
-        <v>1</v>
-      </c>
-      <c r="T26" s="5">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="U26" s="5">
-        <f t="shared" si="6"/>
         <v>182</v>
       </c>
-      <c r="V26" s="6">
-        <f t="shared" si="7"/>
-        <v>21.625</v>
-      </c>
-      <c r="W26" s="6">
-        <f t="shared" si="8"/>
-        <v>0.9505494505494505</v>
-      </c>
-      <c r="X26" s="6">
-        <f t="shared" si="9"/>
-        <v>3.2967032967032968E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24">
-      <c r="A27" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="D27" s="9">
+    </row>
+    <row r="27" spans="1:18">
+      <c r="A27" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D27" s="8">
         <v>230.9</v>
       </c>
       <c r="E27" s="5">
@@ -4024,63 +3312,39 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="L27" s="6">
+      <c r="L27" s="5">
+        <v>94</v>
+      </c>
+      <c r="M27" s="5">
+        <v>20</v>
+      </c>
+      <c r="N27" s="5">
+        <v>53</v>
+      </c>
+      <c r="O27" s="5">
+        <v>0</v>
+      </c>
+      <c r="P27" s="5">
+        <v>2</v>
+      </c>
+      <c r="Q27" s="5">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="M27" s="6">
+        <v>2</v>
+      </c>
+      <c r="R27" s="5">
         <f t="shared" si="3"/>
-        <v>0.72727272727272729</v>
-      </c>
-      <c r="N27" s="6">
-        <f t="shared" si="4"/>
-        <v>0.36363636363636365</v>
-      </c>
-      <c r="O27" s="5">
-        <v>94</v>
-      </c>
-      <c r="P27" s="5">
-        <v>20</v>
-      </c>
-      <c r="Q27" s="5">
-        <v>53</v>
-      </c>
-      <c r="R27" s="5">
-        <v>0</v>
-      </c>
-      <c r="S27" s="5">
-        <v>2</v>
-      </c>
-      <c r="T27" s="5">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="U27" s="5">
-        <f t="shared" si="6"/>
         <v>149</v>
       </c>
-      <c r="V27" s="6">
-        <f t="shared" si="7"/>
-        <v>1.7735849056603774</v>
-      </c>
-      <c r="W27" s="6">
-        <f t="shared" si="8"/>
-        <v>0.63087248322147649</v>
-      </c>
-      <c r="X27" s="6">
-        <f t="shared" si="9"/>
-        <v>0.13422818791946309</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24">
+    </row>
+    <row r="28" spans="1:18">
       <c r="A28" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D28" s="4">
         <v>222.9</v>
@@ -4108,63 +3372,39 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="L28" s="6" t="e">
+      <c r="L28" s="5">
+        <v>60</v>
+      </c>
+      <c r="M28" s="5">
+        <v>0</v>
+      </c>
+      <c r="N28" s="5">
+        <v>0</v>
+      </c>
+      <c r="O28" s="5">
+        <v>35</v>
+      </c>
+      <c r="P28" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q28" s="5">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M28" s="6">
+        <v>46</v>
+      </c>
+      <c r="R28" s="5">
         <f t="shared" si="3"/>
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="N28" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O28" s="5">
-        <v>60</v>
-      </c>
-      <c r="P28" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="5">
-        <v>0</v>
-      </c>
-      <c r="R28" s="5">
-        <v>35</v>
-      </c>
-      <c r="S28" s="5">
-        <v>11</v>
-      </c>
-      <c r="T28" s="5">
-        <f t="shared" si="5"/>
-        <v>46</v>
-      </c>
-      <c r="U28" s="5">
-        <f t="shared" si="6"/>
         <v>106</v>
       </c>
-      <c r="V28" s="6" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W28" s="6">
-        <f t="shared" si="8"/>
-        <v>0.56603773584905659</v>
-      </c>
-      <c r="X28" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:24">
+    </row>
+    <row r="29" spans="1:18">
       <c r="A29" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D29" s="4">
         <v>222.9</v>
@@ -4192,63 +3432,39 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="L29" s="6">
+      <c r="L29" s="5">
+        <v>11</v>
+      </c>
+      <c r="M29" s="5">
+        <v>5</v>
+      </c>
+      <c r="N29" s="5">
+        <v>1</v>
+      </c>
+      <c r="O29" s="5">
+        <v>0</v>
+      </c>
+      <c r="P29" s="5">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="5">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="M29" s="6">
+        <v>8</v>
+      </c>
+      <c r="R29" s="5">
         <f t="shared" si="3"/>
-        <v>0.625</v>
-      </c>
-      <c r="N29" s="6">
-        <f t="shared" si="4"/>
-        <v>0.375</v>
-      </c>
-      <c r="O29" s="5">
-        <v>11</v>
-      </c>
-      <c r="P29" s="5">
-        <v>5</v>
-      </c>
-      <c r="Q29" s="5">
-        <v>1</v>
-      </c>
-      <c r="R29" s="5">
-        <v>0</v>
-      </c>
-      <c r="S29" s="5">
-        <v>8</v>
-      </c>
-      <c r="T29" s="5">
-        <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="U29" s="5">
-        <f t="shared" si="6"/>
         <v>20</v>
       </c>
-      <c r="V29" s="6">
-        <f t="shared" si="7"/>
-        <v>11</v>
-      </c>
-      <c r="W29" s="6">
-        <f t="shared" si="8"/>
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="X29" s="6">
-        <f t="shared" si="9"/>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:24">
+    </row>
+    <row r="30" spans="1:18">
       <c r="A30" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D30" s="4">
         <v>222.9</v>
@@ -4276,63 +3492,39 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="L30" s="6">
+      <c r="L30" s="5">
+        <v>27</v>
+      </c>
+      <c r="M30" s="5">
+        <v>0</v>
+      </c>
+      <c r="N30" s="5">
+        <v>1</v>
+      </c>
+      <c r="O30" s="5">
+        <v>0</v>
+      </c>
+      <c r="P30" s="5">
+        <v>3</v>
+      </c>
+      <c r="Q30" s="5">
         <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="M30" s="6">
+        <v>3</v>
+      </c>
+      <c r="R30" s="5">
         <f t="shared" si="3"/>
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="N30" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O30" s="5">
-        <v>27</v>
-      </c>
-      <c r="P30" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="5">
-        <v>1</v>
-      </c>
-      <c r="R30" s="5">
-        <v>0</v>
-      </c>
-      <c r="S30" s="5">
-        <v>3</v>
-      </c>
-      <c r="T30" s="5">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="U30" s="5">
-        <f t="shared" si="6"/>
         <v>31</v>
       </c>
-      <c r="V30" s="6">
-        <f t="shared" si="7"/>
-        <v>27</v>
-      </c>
-      <c r="W30" s="6">
-        <f t="shared" si="8"/>
-        <v>0.87096774193548387</v>
-      </c>
-      <c r="X30" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:24">
+    </row>
+    <row r="31" spans="1:18">
       <c r="A31" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D31" s="4">
         <v>222.9</v>
@@ -4360,65 +3552,41 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="L31" s="6">
+      <c r="L31" s="5">
+        <v>173</v>
+      </c>
+      <c r="M31" s="5">
+        <v>112</v>
+      </c>
+      <c r="N31" s="5">
+        <v>48</v>
+      </c>
+      <c r="O31" s="5">
+        <v>0</v>
+      </c>
+      <c r="P31" s="5">
+        <v>19</v>
+      </c>
+      <c r="Q31" s="5">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="M31" s="6">
+      <c r="R31" s="5">
         <f t="shared" si="3"/>
-        <v>0.86363636363636365</v>
-      </c>
-      <c r="N31" s="6">
-        <f t="shared" si="4"/>
-        <v>0.13636363636363635</v>
-      </c>
-      <c r="O31" s="5">
-        <v>173</v>
-      </c>
-      <c r="P31" s="5">
-        <v>112</v>
-      </c>
-      <c r="Q31" s="5">
-        <v>48</v>
-      </c>
-      <c r="R31" s="5">
-        <v>0</v>
-      </c>
-      <c r="S31" s="5">
-        <v>19</v>
-      </c>
-      <c r="T31" s="5">
-        <f t="shared" si="5"/>
-        <v>19</v>
-      </c>
-      <c r="U31" s="5">
-        <f t="shared" si="6"/>
         <v>240</v>
       </c>
-      <c r="V31" s="6">
-        <f t="shared" si="7"/>
-        <v>3.6041666666666665</v>
-      </c>
-      <c r="W31" s="6">
-        <f t="shared" si="8"/>
-        <v>0.72083333333333333</v>
-      </c>
-      <c r="X31" s="6">
-        <f t="shared" si="9"/>
-        <v>0.46666666666666667</v>
-      </c>
-    </row>
-    <row r="32" spans="1:24">
-      <c r="A32" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="D32" s="9">
+    </row>
+    <row r="32" spans="1:18">
+      <c r="A32" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D32" s="8">
         <v>221.2</v>
       </c>
       <c r="E32" s="5">
@@ -4444,63 +3612,39 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="L32" s="6">
+      <c r="L32" s="5">
+        <v>26</v>
+      </c>
+      <c r="M32" s="5">
+        <v>26</v>
+      </c>
+      <c r="N32" s="5">
+        <v>3</v>
+      </c>
+      <c r="O32" s="5">
+        <v>3</v>
+      </c>
+      <c r="P32" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="5">
         <f t="shared" si="2"/>
-        <v>4.5</v>
-      </c>
-      <c r="M32" s="6">
+        <v>3</v>
+      </c>
+      <c r="R32" s="5">
         <f t="shared" si="3"/>
-        <v>0.75</v>
-      </c>
-      <c r="N32" s="6">
-        <f t="shared" si="4"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="O32" s="5">
-        <v>26</v>
-      </c>
-      <c r="P32" s="5">
-        <v>26</v>
-      </c>
-      <c r="Q32" s="5">
-        <v>3</v>
-      </c>
-      <c r="R32" s="5">
-        <v>3</v>
-      </c>
-      <c r="S32" s="5">
-        <v>0</v>
-      </c>
-      <c r="T32" s="5">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="U32" s="5">
-        <f t="shared" si="6"/>
         <v>32</v>
       </c>
-      <c r="V32" s="6">
-        <f t="shared" si="7"/>
-        <v>8.6666666666666661</v>
-      </c>
-      <c r="W32" s="6">
-        <f t="shared" si="8"/>
-        <v>0.8125</v>
-      </c>
-      <c r="X32" s="6">
-        <f t="shared" si="9"/>
-        <v>0.8125</v>
-      </c>
-    </row>
-    <row r="33" spans="1:24">
+    </row>
+    <row r="33" spans="1:18">
       <c r="A33" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D33" s="4">
         <v>215.8</v>
@@ -4528,63 +3672,39 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="L33" s="6" t="e">
+      <c r="L33" s="5">
+        <v>84</v>
+      </c>
+      <c r="M33" s="5">
+        <v>29</v>
+      </c>
+      <c r="N33" s="5">
+        <v>0</v>
+      </c>
+      <c r="O33" s="5">
+        <v>4</v>
+      </c>
+      <c r="P33" s="5">
+        <v>16</v>
+      </c>
+      <c r="Q33" s="5">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M33" s="6">
+        <v>20</v>
+      </c>
+      <c r="R33" s="5">
         <f t="shared" si="3"/>
-        <v>0.72727272727272729</v>
-      </c>
-      <c r="N33" s="6">
-        <f t="shared" si="4"/>
-        <v>0.36363636363636365</v>
-      </c>
-      <c r="O33" s="5">
-        <v>84</v>
-      </c>
-      <c r="P33" s="5">
-        <v>29</v>
-      </c>
-      <c r="Q33" s="5">
-        <v>0</v>
-      </c>
-      <c r="R33" s="5">
-        <v>4</v>
-      </c>
-      <c r="S33" s="5">
-        <v>16</v>
-      </c>
-      <c r="T33" s="5">
-        <f t="shared" si="5"/>
-        <v>20</v>
-      </c>
-      <c r="U33" s="5">
-        <f t="shared" si="6"/>
         <v>104</v>
       </c>
-      <c r="V33" s="6" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W33" s="6">
-        <f t="shared" si="8"/>
-        <v>0.80769230769230771</v>
-      </c>
-      <c r="X33" s="6">
-        <f t="shared" si="9"/>
-        <v>0.27884615384615385</v>
-      </c>
-    </row>
-    <row r="34" spans="1:24">
+    </row>
+    <row r="34" spans="1:18">
       <c r="A34" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D34" s="4">
         <v>215.8</v>
@@ -4612,65 +3732,41 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="L34" s="6">
+      <c r="L34" s="5">
+        <v>45</v>
+      </c>
+      <c r="M34" s="5">
+        <v>1</v>
+      </c>
+      <c r="N34" s="5">
+        <v>1</v>
+      </c>
+      <c r="O34" s="5">
+        <v>0</v>
+      </c>
+      <c r="P34" s="5">
+        <v>19</v>
+      </c>
+      <c r="Q34" s="5">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="M34" s="6">
+        <v>19</v>
+      </c>
+      <c r="R34" s="5">
         <f t="shared" si="3"/>
-        <v>0.76923076923076927</v>
-      </c>
-      <c r="N34" s="6">
-        <f t="shared" si="4"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="O34" s="5">
-        <v>45</v>
-      </c>
-      <c r="P34" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q34" s="5">
-        <v>1</v>
-      </c>
-      <c r="R34" s="5">
-        <v>0</v>
-      </c>
-      <c r="S34" s="5">
-        <v>19</v>
-      </c>
-      <c r="T34" s="5">
-        <f t="shared" si="5"/>
-        <v>19</v>
-      </c>
-      <c r="U34" s="5">
-        <f t="shared" si="6"/>
         <v>65</v>
       </c>
-      <c r="V34" s="6">
-        <f t="shared" si="7"/>
-        <v>45</v>
-      </c>
-      <c r="W34" s="6">
-        <f t="shared" si="8"/>
-        <v>0.69230769230769229</v>
-      </c>
-      <c r="X34" s="6">
-        <f t="shared" si="9"/>
-        <v>1.5384615384615385E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:24">
-      <c r="A35" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="D35" s="9">
+    </row>
+    <row r="35" spans="1:18">
+      <c r="A35" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D35" s="8">
         <v>213.5</v>
       </c>
       <c r="E35" s="5">
@@ -4696,63 +3792,39 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="L35" s="6">
+      <c r="L35" s="5">
+        <v>69</v>
+      </c>
+      <c r="M35" s="5">
+        <v>69</v>
+      </c>
+      <c r="N35" s="5">
+        <v>7</v>
+      </c>
+      <c r="O35" s="5">
+        <v>0</v>
+      </c>
+      <c r="P35" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="5">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="M35" s="6">
+        <v>0</v>
+      </c>
+      <c r="R35" s="5">
         <f t="shared" si="3"/>
-        <v>0.75</v>
-      </c>
-      <c r="N35" s="6">
-        <f t="shared" si="4"/>
-        <v>0.875</v>
-      </c>
-      <c r="O35" s="5">
-        <v>69</v>
-      </c>
-      <c r="P35" s="5">
-        <v>69</v>
-      </c>
-      <c r="Q35" s="5">
-        <v>7</v>
-      </c>
-      <c r="R35" s="5">
-        <v>0</v>
-      </c>
-      <c r="S35" s="5">
-        <v>0</v>
-      </c>
-      <c r="T35" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="U35" s="5">
-        <f t="shared" si="6"/>
         <v>76</v>
       </c>
-      <c r="V35" s="6">
-        <f t="shared" si="7"/>
-        <v>9.8571428571428577</v>
-      </c>
-      <c r="W35" s="6">
-        <f t="shared" si="8"/>
-        <v>0.90789473684210531</v>
-      </c>
-      <c r="X35" s="6">
-        <f t="shared" si="9"/>
-        <v>0.90789473684210531</v>
-      </c>
-    </row>
-    <row r="36" spans="1:24">
+    </row>
+    <row r="36" spans="1:18">
       <c r="A36" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D36" s="4">
         <v>211.7</v>
@@ -4780,63 +3852,39 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="L36" s="6" t="e">
+      <c r="L36" s="5">
+        <v>63</v>
+      </c>
+      <c r="M36" s="5">
+        <v>62</v>
+      </c>
+      <c r="N36" s="5">
+        <v>0</v>
+      </c>
+      <c r="O36" s="5">
+        <v>3</v>
+      </c>
+      <c r="P36" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="5">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M36" s="6">
+        <v>3</v>
+      </c>
+      <c r="R36" s="5">
         <f t="shared" si="3"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="N36" s="6">
-        <f t="shared" si="4"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="O36" s="5">
-        <v>63</v>
-      </c>
-      <c r="P36" s="5">
-        <v>62</v>
-      </c>
-      <c r="Q36" s="5">
-        <v>0</v>
-      </c>
-      <c r="R36" s="5">
-        <v>3</v>
-      </c>
-      <c r="S36" s="5">
-        <v>0</v>
-      </c>
-      <c r="T36" s="5">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="U36" s="5">
-        <f t="shared" si="6"/>
         <v>66</v>
       </c>
-      <c r="V36" s="6" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W36" s="6">
-        <f t="shared" si="8"/>
-        <v>0.95454545454545459</v>
-      </c>
-      <c r="X36" s="6">
-        <f t="shared" si="9"/>
-        <v>0.93939393939393945</v>
-      </c>
-    </row>
-    <row r="37" spans="1:24">
+    </row>
+    <row r="37" spans="1:18">
       <c r="A37" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D37" s="4">
         <v>211.7</v>
@@ -4864,63 +3912,39 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="L37" s="6" t="e">
+      <c r="L37" s="5">
+        <v>23</v>
+      </c>
+      <c r="M37" s="5">
+        <v>1</v>
+      </c>
+      <c r="N37" s="5">
+        <v>0</v>
+      </c>
+      <c r="O37" s="5">
+        <v>0</v>
+      </c>
+      <c r="P37" s="5">
+        <v>12</v>
+      </c>
+      <c r="Q37" s="5">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M37" s="6">
+        <v>12</v>
+      </c>
+      <c r="R37" s="5">
         <f t="shared" si="3"/>
-        <v>0.75</v>
-      </c>
-      <c r="N37" s="6">
-        <f t="shared" si="4"/>
-        <v>0.125</v>
-      </c>
-      <c r="O37" s="5">
-        <v>23</v>
-      </c>
-      <c r="P37" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q37" s="5">
-        <v>0</v>
-      </c>
-      <c r="R37" s="5">
-        <v>0</v>
-      </c>
-      <c r="S37" s="5">
-        <v>12</v>
-      </c>
-      <c r="T37" s="5">
-        <f t="shared" si="5"/>
-        <v>12</v>
-      </c>
-      <c r="U37" s="5">
-        <f t="shared" si="6"/>
         <v>35</v>
       </c>
-      <c r="V37" s="6" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W37" s="6">
-        <f t="shared" si="8"/>
-        <v>0.65714285714285714</v>
-      </c>
-      <c r="X37" s="6">
-        <f t="shared" si="9"/>
-        <v>2.8571428571428571E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:24">
+    </row>
+    <row r="38" spans="1:18">
       <c r="A38" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D38" s="4">
         <v>211.7</v>
@@ -4948,65 +3972,41 @@
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="L38" s="6">
+      <c r="L38" s="5">
+        <v>78</v>
+      </c>
+      <c r="M38" s="5">
+        <v>6</v>
+      </c>
+      <c r="N38" s="5">
+        <v>2</v>
+      </c>
+      <c r="O38" s="5">
+        <v>0</v>
+      </c>
+      <c r="P38" s="5">
+        <v>9</v>
+      </c>
+      <c r="Q38" s="5">
         <f t="shared" si="2"/>
-        <v>11.5</v>
-      </c>
-      <c r="M38" s="6">
+        <v>9</v>
+      </c>
+      <c r="R38" s="5">
         <f t="shared" si="3"/>
-        <v>0.7931034482758621</v>
-      </c>
-      <c r="N38" s="6">
-        <f t="shared" si="4"/>
-        <v>0.13793103448275862</v>
-      </c>
-      <c r="O38" s="5">
-        <v>78</v>
-      </c>
-      <c r="P38" s="5">
-        <v>6</v>
-      </c>
-      <c r="Q38" s="5">
-        <v>2</v>
-      </c>
-      <c r="R38" s="5">
-        <v>0</v>
-      </c>
-      <c r="S38" s="5">
-        <v>9</v>
-      </c>
-      <c r="T38" s="5">
-        <f t="shared" si="5"/>
-        <v>9</v>
-      </c>
-      <c r="U38" s="5">
-        <f t="shared" si="6"/>
         <v>89</v>
       </c>
-      <c r="V38" s="6">
-        <f t="shared" si="7"/>
-        <v>39</v>
-      </c>
-      <c r="W38" s="6">
-        <f t="shared" si="8"/>
-        <v>0.8764044943820225</v>
-      </c>
-      <c r="X38" s="6">
-        <f t="shared" si="9"/>
-        <v>6.741573033707865E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:24">
-      <c r="A39" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="D39" s="9">
+    </row>
+    <row r="39" spans="1:18">
+      <c r="A39" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D39" s="8">
         <v>206.8</v>
       </c>
       <c r="E39" s="5">
@@ -5032,63 +4032,39 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="L39" s="6" t="e">
+      <c r="L39" s="5">
+        <v>87</v>
+      </c>
+      <c r="M39" s="5">
+        <v>85</v>
+      </c>
+      <c r="N39" s="5">
+        <v>0</v>
+      </c>
+      <c r="O39" s="5">
+        <v>0</v>
+      </c>
+      <c r="P39" s="5">
+        <v>5</v>
+      </c>
+      <c r="Q39" s="5">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M39" s="6">
+        <v>5</v>
+      </c>
+      <c r="R39" s="5">
         <f t="shared" si="3"/>
-        <v>0.75</v>
-      </c>
-      <c r="N39" s="6">
-        <f t="shared" si="4"/>
-        <v>0.625</v>
-      </c>
-      <c r="O39" s="5">
-        <v>87</v>
-      </c>
-      <c r="P39" s="5">
-        <v>85</v>
-      </c>
-      <c r="Q39" s="5">
-        <v>0</v>
-      </c>
-      <c r="R39" s="5">
-        <v>0</v>
-      </c>
-      <c r="S39" s="5">
-        <v>5</v>
-      </c>
-      <c r="T39" s="5">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="U39" s="5">
-        <f t="shared" si="6"/>
         <v>92</v>
       </c>
-      <c r="V39" s="6" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W39" s="6">
-        <f t="shared" si="8"/>
-        <v>0.94565217391304346</v>
-      </c>
-      <c r="X39" s="6">
-        <f t="shared" si="9"/>
-        <v>0.92391304347826086</v>
-      </c>
-    </row>
-    <row r="40" spans="1:24">
+    </row>
+    <row r="40" spans="1:18">
       <c r="A40" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D40" s="4">
         <v>200.3</v>
@@ -5116,63 +4092,39 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="L40" s="6">
+      <c r="L40" s="5">
+        <v>131</v>
+      </c>
+      <c r="M40" s="5">
+        <v>131</v>
+      </c>
+      <c r="N40" s="5">
+        <v>12</v>
+      </c>
+      <c r="O40" s="5">
+        <v>0</v>
+      </c>
+      <c r="P40" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="5">
         <f t="shared" si="2"/>
-        <v>2.5</v>
-      </c>
-      <c r="M40" s="6">
+        <v>0</v>
+      </c>
+      <c r="R40" s="5">
         <f t="shared" si="3"/>
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="N40" s="6">
-        <f t="shared" si="4"/>
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="O40" s="5">
-        <v>131</v>
-      </c>
-      <c r="P40" s="5">
-        <v>131</v>
-      </c>
-      <c r="Q40" s="5">
-        <v>12</v>
-      </c>
-      <c r="R40" s="5">
-        <v>0</v>
-      </c>
-      <c r="S40" s="5">
-        <v>0</v>
-      </c>
-      <c r="T40" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="U40" s="5">
-        <f t="shared" si="6"/>
         <v>143</v>
       </c>
-      <c r="V40" s="6">
-        <f t="shared" si="7"/>
-        <v>10.916666666666666</v>
-      </c>
-      <c r="W40" s="6">
-        <f t="shared" si="8"/>
-        <v>0.91608391608391604</v>
-      </c>
-      <c r="X40" s="6">
-        <f t="shared" si="9"/>
-        <v>0.91608391608391604</v>
-      </c>
-    </row>
-    <row r="41" spans="1:24">
+    </row>
+    <row r="41" spans="1:18">
       <c r="A41" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D41" s="4">
         <v>200.3</v>
@@ -5200,65 +4152,41 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="L41" s="6" t="e">
+      <c r="L41" s="5">
+        <v>8</v>
+      </c>
+      <c r="M41" s="5">
+        <v>5</v>
+      </c>
+      <c r="N41" s="5">
+        <v>0</v>
+      </c>
+      <c r="O41" s="5">
+        <v>1</v>
+      </c>
+      <c r="P41" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="5">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M41" s="6">
+        <v>1</v>
+      </c>
+      <c r="R41" s="5">
         <f t="shared" si="3"/>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="N41" s="6">
-        <f t="shared" si="4"/>
-        <v>0.5</v>
-      </c>
-      <c r="O41" s="5">
-        <v>8</v>
-      </c>
-      <c r="P41" s="5">
-        <v>5</v>
-      </c>
-      <c r="Q41" s="5">
-        <v>0</v>
-      </c>
-      <c r="R41" s="5">
-        <v>1</v>
-      </c>
-      <c r="S41" s="5">
-        <v>0</v>
-      </c>
-      <c r="T41" s="5">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="U41" s="5">
-        <f t="shared" si="6"/>
         <v>9</v>
       </c>
-      <c r="V41" s="6" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W41" s="6">
-        <f t="shared" si="8"/>
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="X41" s="6">
-        <f t="shared" si="9"/>
-        <v>0.55555555555555558</v>
-      </c>
-    </row>
-    <row r="42" spans="1:24">
-      <c r="A42" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="B42" s="7" t="s">
+    </row>
+    <row r="42" spans="1:18">
+      <c r="A42" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="C42" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="D42" s="9">
+      <c r="B42" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D42" s="8">
         <v>195.1</v>
       </c>
       <c r="E42" s="5">
@@ -5284,63 +4212,39 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="L42" s="6">
+      <c r="L42" s="5">
+        <v>23</v>
+      </c>
+      <c r="M42" s="5">
+        <v>9</v>
+      </c>
+      <c r="N42" s="5">
+        <v>19</v>
+      </c>
+      <c r="O42" s="5">
+        <v>0</v>
+      </c>
+      <c r="P42" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="5">
         <f t="shared" si="2"/>
-        <v>1.625</v>
-      </c>
-      <c r="M42" s="6">
+        <v>0</v>
+      </c>
+      <c r="R42" s="5">
         <f t="shared" si="3"/>
-        <v>0.61904761904761907</v>
-      </c>
-      <c r="N42" s="6">
-        <f t="shared" si="4"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="O42" s="5">
-        <v>23</v>
-      </c>
-      <c r="P42" s="5">
-        <v>9</v>
-      </c>
-      <c r="Q42" s="5">
-        <v>19</v>
-      </c>
-      <c r="R42" s="5">
-        <v>0</v>
-      </c>
-      <c r="S42" s="5">
-        <v>0</v>
-      </c>
-      <c r="T42" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="U42" s="5">
-        <f t="shared" si="6"/>
         <v>42</v>
       </c>
-      <c r="V42" s="6">
-        <f t="shared" si="7"/>
-        <v>1.2105263157894737</v>
-      </c>
-      <c r="W42" s="6">
-        <f t="shared" si="8"/>
-        <v>0.54761904761904767</v>
-      </c>
-      <c r="X42" s="6">
-        <f t="shared" si="9"/>
-        <v>0.21428571428571427</v>
-      </c>
-    </row>
-    <row r="43" spans="1:24">
+    </row>
+    <row r="43" spans="1:18">
       <c r="A43" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D43" s="4">
         <v>190.9</v>
@@ -5368,63 +4272,39 @@
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="L43" s="6">
+      <c r="L43" s="5">
+        <v>179</v>
+      </c>
+      <c r="M43" s="5">
+        <v>157</v>
+      </c>
+      <c r="N43" s="5">
+        <v>171</v>
+      </c>
+      <c r="O43" s="5">
+        <v>1</v>
+      </c>
+      <c r="P43" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q43" s="5">
         <f t="shared" si="2"/>
-        <v>5.25</v>
-      </c>
-      <c r="M43" s="6">
+        <v>2</v>
+      </c>
+      <c r="R43" s="5">
         <f t="shared" si="3"/>
-        <v>0.77777777777777779</v>
-      </c>
-      <c r="N43" s="6">
-        <f t="shared" si="4"/>
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="O43" s="5">
-        <v>179</v>
-      </c>
-      <c r="P43" s="5">
-        <v>157</v>
-      </c>
-      <c r="Q43" s="5">
-        <v>171</v>
-      </c>
-      <c r="R43" s="5">
-        <v>1</v>
-      </c>
-      <c r="S43" s="5">
-        <v>1</v>
-      </c>
-      <c r="T43" s="5">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="U43" s="5">
-        <f t="shared" si="6"/>
         <v>352</v>
       </c>
-      <c r="V43" s="6">
-        <f t="shared" si="7"/>
-        <v>1.0467836257309941</v>
-      </c>
-      <c r="W43" s="6">
-        <f t="shared" si="8"/>
-        <v>0.50852272727272729</v>
-      </c>
-      <c r="X43" s="6">
-        <f t="shared" si="9"/>
-        <v>0.44602272727272729</v>
-      </c>
-    </row>
-    <row r="44" spans="1:24">
+    </row>
+    <row r="44" spans="1:18">
       <c r="A44" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D44" s="4">
         <v>190.9</v>
@@ -5452,65 +4332,41 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="L44" s="6" t="e">
+      <c r="L44" s="5">
+        <v>72</v>
+      </c>
+      <c r="M44" s="5">
+        <v>72</v>
+      </c>
+      <c r="N44" s="5">
+        <v>0</v>
+      </c>
+      <c r="O44" s="5">
+        <v>0</v>
+      </c>
+      <c r="P44" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="5">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M44" s="6">
+        <v>0</v>
+      </c>
+      <c r="R44" s="5">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="N44" s="6">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="O44" s="5">
         <v>72</v>
       </c>
-      <c r="P44" s="5">
-        <v>72</v>
-      </c>
-      <c r="Q44" s="5">
-        <v>0</v>
-      </c>
-      <c r="R44" s="5">
-        <v>0</v>
-      </c>
-      <c r="S44" s="5">
-        <v>0</v>
-      </c>
-      <c r="T44" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="U44" s="5">
-        <f t="shared" si="6"/>
-        <v>72</v>
-      </c>
-      <c r="V44" s="6" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W44" s="6">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="X44" s="6">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:24">
-      <c r="A45" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="D45" s="9">
+    </row>
+    <row r="45" spans="1:18">
+      <c r="A45" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D45" s="8">
         <v>188.9</v>
       </c>
       <c r="E45" s="5">
@@ -5536,63 +4392,39 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="L45" s="6">
+      <c r="L45" s="5">
+        <v>43</v>
+      </c>
+      <c r="M45" s="5">
+        <v>30</v>
+      </c>
+      <c r="N45" s="5">
+        <v>26</v>
+      </c>
+      <c r="O45" s="5">
+        <v>16</v>
+      </c>
+      <c r="P45" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="5">
         <f t="shared" si="2"/>
-        <v>3.5</v>
-      </c>
-      <c r="M45" s="6">
+        <v>16</v>
+      </c>
+      <c r="R45" s="5">
         <f t="shared" si="3"/>
-        <v>0.73684210526315785</v>
-      </c>
-      <c r="N45" s="6">
-        <f t="shared" si="4"/>
-        <v>0.42105263157894735</v>
-      </c>
-      <c r="O45" s="5">
-        <v>43</v>
-      </c>
-      <c r="P45" s="5">
-        <v>30</v>
-      </c>
-      <c r="Q45" s="5">
-        <v>26</v>
-      </c>
-      <c r="R45" s="5">
-        <v>16</v>
-      </c>
-      <c r="S45" s="5">
-        <v>0</v>
-      </c>
-      <c r="T45" s="5">
-        <f t="shared" si="5"/>
-        <v>16</v>
-      </c>
-      <c r="U45" s="5">
-        <f t="shared" si="6"/>
         <v>85</v>
       </c>
-      <c r="V45" s="6">
-        <f t="shared" si="7"/>
-        <v>1.6538461538461537</v>
-      </c>
-      <c r="W45" s="6">
-        <f t="shared" si="8"/>
-        <v>0.50588235294117645</v>
-      </c>
-      <c r="X45" s="6">
-        <f t="shared" si="9"/>
-        <v>0.35294117647058826</v>
-      </c>
-    </row>
-    <row r="46" spans="1:24">
+    </row>
+    <row r="46" spans="1:18">
       <c r="A46" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D46" s="4">
         <v>184.7</v>
@@ -5620,52 +4452,28 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="L46" s="6">
+      <c r="L46" s="5">
+        <v>22</v>
+      </c>
+      <c r="M46" s="5">
+        <v>19</v>
+      </c>
+      <c r="N46" s="5">
+        <v>6</v>
+      </c>
+      <c r="O46" s="5">
+        <v>0</v>
+      </c>
+      <c r="P46" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="5">
         <f t="shared" si="2"/>
-        <v>3.5</v>
-      </c>
-      <c r="M46" s="6">
+        <v>0</v>
+      </c>
+      <c r="R46" s="5">
         <f t="shared" si="3"/>
-        <v>0.77777777777777779</v>
-      </c>
-      <c r="N46" s="6">
-        <f t="shared" si="4"/>
-        <v>0.44444444444444442</v>
-      </c>
-      <c r="O46" s="5">
-        <v>22</v>
-      </c>
-      <c r="P46" s="5">
-        <v>19</v>
-      </c>
-      <c r="Q46" s="5">
-        <v>6</v>
-      </c>
-      <c r="R46" s="5">
-        <v>0</v>
-      </c>
-      <c r="S46" s="5">
-        <v>0</v>
-      </c>
-      <c r="T46" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="U46" s="5">
-        <f t="shared" si="6"/>
         <v>28</v>
-      </c>
-      <c r="V46" s="6">
-        <f t="shared" si="7"/>
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="W46" s="6">
-        <f t="shared" si="8"/>
-        <v>0.7857142857142857</v>
-      </c>
-      <c r="X46" s="6">
-        <f t="shared" si="9"/>
-        <v>0.6785714285714286</v>
       </c>
     </row>
   </sheetData>
@@ -5675,15 +4483,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L65"/>
+  <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1">
+    <row r="1" spans="1:9" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5694,7 +4502,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -5711,19 +4519,10 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
         <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" t="s">
-        <v>11</v>
       </c>
       <c r="B2">
         <v>251.5</v>
@@ -5731,16 +4530,10 @@
       <c r="I2">
         <v>3</v>
       </c>
-      <c r="K2">
-        <v>1.5E-3</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>250</v>
@@ -5748,16 +4541,10 @@
       <c r="I3">
         <v>4</v>
       </c>
-      <c r="K3">
-        <v>1E-3</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>249</v>
@@ -5765,16 +4552,10 @@
       <c r="I4">
         <v>7</v>
       </c>
-      <c r="K4">
-        <v>1.5E-3</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>248</v>
@@ -5782,16 +4563,10 @@
       <c r="I5">
         <v>2</v>
       </c>
-      <c r="K5">
-        <v>1.1000000000000001E-3</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>247</v>
@@ -5799,16 +4574,10 @@
       <c r="I6">
         <v>6</v>
       </c>
-      <c r="K6">
-        <v>1.1999999999999999E-3</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B7">
         <v>245.5</v>
@@ -5816,16 +4585,10 @@
       <c r="I7">
         <v>5</v>
       </c>
-      <c r="K7">
-        <v>1.2999999999999999E-3</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B8">
         <v>242.25</v>
@@ -5833,16 +4596,10 @@
       <c r="I8">
         <v>4</v>
       </c>
-      <c r="K8">
-        <v>1.4E-3</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B9">
         <v>238.5</v>
@@ -5859,19 +4616,10 @@
       <c r="I9">
         <v>5</v>
       </c>
-      <c r="J9">
-        <v>0.8</v>
-      </c>
-      <c r="K9">
-        <v>0.41</v>
-      </c>
-      <c r="L9">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B10">
         <v>238.1</v>
@@ -5888,19 +4636,10 @@
       <c r="I10">
         <v>5</v>
       </c>
-      <c r="J10">
-        <v>0.8</v>
-      </c>
-      <c r="K10">
-        <v>0.4</v>
-      </c>
-      <c r="L10">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B11">
         <v>238</v>
@@ -5917,19 +4656,10 @@
       <c r="I11">
         <v>5</v>
       </c>
-      <c r="J11">
-        <v>0.8</v>
-      </c>
-      <c r="K11">
-        <v>0.6</v>
-      </c>
-      <c r="L11">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B12">
         <v>235</v>
@@ -5940,19 +4670,10 @@
       <c r="I12">
         <v>1</v>
       </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
-      <c r="K12">
-        <v>1.6000000000000001E-3</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B13">
         <v>233.65</v>
@@ -5966,19 +4687,10 @@
       <c r="I13">
         <v>2</v>
       </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-      <c r="K13">
-        <v>1.6999999999999999E-3</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B14">
         <v>232.5</v>
@@ -5995,19 +4707,10 @@
       <c r="I14">
         <v>5</v>
       </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-      <c r="K14">
-        <v>0.41099999999999998</v>
-      </c>
-      <c r="L14">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>232.2</v>
@@ -6021,19 +4724,10 @@
       <c r="I15">
         <v>2</v>
       </c>
-      <c r="J15">
-        <v>1</v>
-      </c>
-      <c r="K15">
-        <v>0.5</v>
-      </c>
-      <c r="L15">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B16">
         <v>232.1</v>
@@ -6047,19 +4741,10 @@
       <c r="I16">
         <v>5</v>
       </c>
-      <c r="J16">
-        <v>1</v>
-      </c>
-      <c r="K16">
-        <v>0.8</v>
-      </c>
-      <c r="L16">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>232</v>
@@ -6073,19 +4758,10 @@
       <c r="I17">
         <v>3</v>
       </c>
-      <c r="J17">
-        <v>1</v>
-      </c>
-      <c r="K17">
-        <v>0.6666666</v>
-      </c>
-      <c r="L17">
-        <v>0.66666666699999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>230.93</v>
@@ -6102,19 +4778,10 @@
       <c r="I18">
         <v>5</v>
       </c>
-      <c r="J18">
-        <v>1</v>
-      </c>
-      <c r="K18">
-        <v>0.61</v>
-      </c>
-      <c r="L18">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B19">
         <v>230.92</v>
@@ -6131,19 +4798,10 @@
       <c r="I19">
         <v>3</v>
       </c>
-      <c r="J19">
-        <v>0.66666666699999999</v>
-      </c>
-      <c r="K19">
-        <v>1.8E-3</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B20">
         <v>230.91</v>
@@ -6157,19 +4815,10 @@
       <c r="I20">
         <v>3</v>
       </c>
-      <c r="J20">
-        <v>1</v>
-      </c>
-      <c r="K20">
-        <v>0.33333333300000001</v>
-      </c>
-      <c r="L20">
-        <v>0.33333333300000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B21">
         <v>230.9</v>
@@ -6186,19 +4835,10 @@
       <c r="I21">
         <v>5</v>
       </c>
-      <c r="J21">
-        <v>0.8</v>
-      </c>
-      <c r="K21">
-        <v>0.2</v>
-      </c>
-      <c r="L21">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B22">
         <v>229.751</v>
@@ -6218,19 +4858,10 @@
       <c r="I22">
         <v>4</v>
       </c>
-      <c r="J22">
-        <v>0.75</v>
-      </c>
-      <c r="K22">
-        <v>0.25</v>
-      </c>
-      <c r="L22">
-        <v>0.33333333300000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B23">
         <v>229.75</v>
@@ -6244,19 +4875,10 @@
       <c r="I23">
         <v>6</v>
       </c>
-      <c r="J23">
-        <v>1</v>
-      </c>
-      <c r="K23">
-        <v>0.51</v>
-      </c>
-      <c r="L23">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B24">
         <v>229.5</v>
@@ -6270,19 +4892,10 @@
       <c r="I24">
         <v>5</v>
       </c>
-      <c r="J24">
-        <v>1</v>
-      </c>
-      <c r="K24">
-        <v>0.61099999999999999</v>
-      </c>
-      <c r="L24">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B25">
         <v>227.5</v>
@@ -6302,19 +4915,10 @@
       <c r="I25">
         <v>6</v>
       </c>
-      <c r="J25">
-        <v>0.83333333300000001</v>
-      </c>
-      <c r="K25">
-        <v>0.51100000000000001</v>
-      </c>
-      <c r="L25">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B26">
         <v>227</v>
@@ -6328,19 +4932,10 @@
       <c r="I26">
         <v>5</v>
       </c>
-      <c r="J26">
-        <v>1</v>
-      </c>
-      <c r="K26">
-        <v>0.81</v>
-      </c>
-      <c r="L26">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>226.53</v>
@@ -6354,19 +4949,10 @@
       <c r="I27">
         <v>3</v>
       </c>
-      <c r="J27">
-        <v>0.66666666699999999</v>
-      </c>
-      <c r="K27">
-        <v>0.66666669999999995</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B28">
         <v>226.52</v>
@@ -6386,19 +4972,10 @@
       <c r="I28">
         <v>8</v>
       </c>
-      <c r="J28">
-        <v>0.875</v>
-      </c>
-      <c r="K28">
-        <v>0.51400000000000001</v>
-      </c>
-      <c r="L28">
-        <v>0.571428571</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B29">
         <v>226.51</v>
@@ -6412,19 +4989,10 @@
       <c r="I29">
         <v>2</v>
       </c>
-      <c r="J29">
-        <v>1</v>
-      </c>
-      <c r="K29">
-        <v>0.51300000000000001</v>
-      </c>
-      <c r="L29">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B30">
         <v>226.5</v>
@@ -6438,19 +5006,10 @@
       <c r="I30">
         <v>2</v>
       </c>
-      <c r="J30">
-        <v>1</v>
-      </c>
-      <c r="K30">
-        <v>0.51200000000000001</v>
-      </c>
-      <c r="L30">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B31">
         <v>225.41</v>
@@ -6461,19 +5020,10 @@
       <c r="I31">
         <v>1</v>
       </c>
-      <c r="J31">
-        <v>1</v>
-      </c>
-      <c r="K31">
-        <v>1.0009999999999999</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B32">
         <v>225.4</v>
@@ -6484,19 +5034,10 @@
       <c r="I32">
         <v>1</v>
       </c>
-      <c r="J32">
-        <v>1</v>
-      </c>
-      <c r="K32">
-        <v>1</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B33">
         <v>223.55</v>
@@ -6507,19 +5048,10 @@
       <c r="I33">
         <v>2</v>
       </c>
-      <c r="J33">
-        <v>1</v>
-      </c>
-      <c r="K33">
-        <v>1.0011000000000001</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B34">
         <v>223</v>
@@ -6533,19 +5065,10 @@
       <c r="I34">
         <v>2</v>
       </c>
-      <c r="J34">
-        <v>0.5</v>
-      </c>
-      <c r="K34">
-        <v>0.51500000000000001</v>
-      </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12">
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B35">
         <v>221.75299999999999</v>
@@ -6562,19 +5085,10 @@
       <c r="I35">
         <v>5</v>
       </c>
-      <c r="J35">
-        <v>0.8</v>
-      </c>
-      <c r="K35">
-        <v>0.41199999999999998</v>
-      </c>
-      <c r="L35">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12">
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B36">
         <v>221.75200000000001</v>
@@ -6591,19 +5105,10 @@
       <c r="I36">
         <v>3</v>
       </c>
-      <c r="J36">
-        <v>0.33333333300000001</v>
-      </c>
-      <c r="K36">
-        <v>1.9E-3</v>
-      </c>
-      <c r="L36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12">
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>221.751</v>
@@ -6620,19 +5125,10 @@
       <c r="I37">
         <v>3</v>
       </c>
-      <c r="J37">
-        <v>1</v>
-      </c>
-      <c r="K37">
-        <v>0.33333334999999997</v>
-      </c>
-      <c r="L37">
-        <v>0.33333333300000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12">
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B38">
         <v>221.75</v>
@@ -6652,19 +5148,10 @@
       <c r="I38">
         <v>6</v>
       </c>
-      <c r="J38">
-        <v>0.83333333300000001</v>
-      </c>
-      <c r="K38">
-        <v>0.33333333999999998</v>
-      </c>
-      <c r="L38">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12">
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B39">
         <v>218.5</v>
@@ -6684,19 +5171,10 @@
       <c r="I39">
         <v>7</v>
       </c>
-      <c r="J39">
-        <v>0.85714285700000004</v>
-      </c>
-      <c r="K39">
-        <v>0.14285714299999999</v>
-      </c>
-      <c r="L39">
-        <v>0.16666666699999999</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12">
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B40">
         <v>215.81</v>
@@ -6710,19 +5188,10 @@
       <c r="I40">
         <v>3</v>
       </c>
-      <c r="J40">
-        <v>1</v>
-      </c>
-      <c r="K40">
-        <v>0.66666671</v>
-      </c>
-      <c r="L40">
-        <v>0.66666666699999999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12">
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B41">
         <v>215.8</v>
@@ -6733,19 +5202,10 @@
       <c r="I41">
         <v>1</v>
       </c>
-      <c r="J41">
-        <v>1</v>
-      </c>
-      <c r="K41">
-        <v>1.0012000000000001</v>
-      </c>
-      <c r="L41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12">
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>214.5</v>
@@ -6756,19 +5216,10 @@
       <c r="I42">
         <v>2</v>
       </c>
-      <c r="J42">
-        <v>1</v>
-      </c>
-      <c r="K42">
-        <v>1.0013000000000001</v>
-      </c>
-      <c r="L42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12">
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B43">
         <v>211.75200000000001</v>
@@ -6782,19 +5233,10 @@
       <c r="I43">
         <v>5</v>
       </c>
-      <c r="J43">
-        <v>1</v>
-      </c>
-      <c r="K43">
-        <v>0.81100000000000005</v>
-      </c>
-      <c r="L43">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12">
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B44">
         <v>211.751</v>
@@ -6814,19 +5256,10 @@
       <c r="I44">
         <v>7</v>
       </c>
-      <c r="J44">
-        <v>0.85714285700000004</v>
-      </c>
-      <c r="K44">
-        <v>0.28571428599999998</v>
-      </c>
-      <c r="L44">
-        <v>0.33333333300000001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12">
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>211.75</v>
@@ -6843,19 +5276,10 @@
       <c r="I45">
         <v>4</v>
       </c>
-      <c r="J45">
-        <v>0.75</v>
-      </c>
-      <c r="K45">
-        <v>0.51600000000000001</v>
-      </c>
-      <c r="L45">
-        <v>0.66666666699999999</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12">
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B46">
         <v>209.5</v>
@@ -6869,19 +5293,10 @@
       <c r="I46">
         <v>5</v>
       </c>
-      <c r="J46">
-        <v>1</v>
-      </c>
-      <c r="K46">
-        <v>0.81200000000000006</v>
-      </c>
-      <c r="L46">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12">
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B47">
         <v>207.15100000000001</v>
@@ -6895,19 +5310,10 @@
       <c r="I47">
         <v>2</v>
       </c>
-      <c r="J47">
-        <v>1</v>
-      </c>
-      <c r="K47">
-        <v>0.51700000000000002</v>
-      </c>
-      <c r="L47">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12">
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B48">
         <v>207.15</v>
@@ -6918,19 +5324,10 @@
       <c r="I48">
         <v>6</v>
       </c>
-      <c r="J48">
-        <v>1</v>
-      </c>
-      <c r="K48">
-        <v>1.0014000000000001</v>
-      </c>
-      <c r="L48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12">
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>204.91</v>
@@ -6944,19 +5341,10 @@
       <c r="I49">
         <v>3</v>
       </c>
-      <c r="J49">
-        <v>0.66666666699999999</v>
-      </c>
-      <c r="K49">
-        <v>0.66666672000000005</v>
-      </c>
-      <c r="L49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12">
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B50">
         <v>204.9</v>
@@ -6967,19 +5355,10 @@
       <c r="I50">
         <v>2</v>
       </c>
-      <c r="J50">
-        <v>1</v>
-      </c>
-      <c r="K50">
-        <v>1.0015000000000001</v>
-      </c>
-      <c r="L50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12">
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B51">
         <v>204.1</v>
@@ -6996,19 +5375,10 @@
       <c r="I51">
         <v>5</v>
       </c>
-      <c r="J51">
-        <v>0.8</v>
-      </c>
-      <c r="K51">
-        <v>0.41299999999999998</v>
-      </c>
-      <c r="L51">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12">
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>204</v>
@@ -7028,19 +5398,10 @@
       <c r="I52">
         <v>5</v>
       </c>
-      <c r="J52">
-        <v>0.8</v>
-      </c>
-      <c r="K52">
-        <v>0.21</v>
-      </c>
-      <c r="L52">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12">
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B53">
         <v>202.655</v>
@@ -7057,19 +5418,10 @@
       <c r="I53">
         <v>5</v>
       </c>
-      <c r="J53">
-        <v>1</v>
-      </c>
-      <c r="K53">
-        <v>0.61399999999999999</v>
-      </c>
-      <c r="L53">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12">
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B54">
         <v>202.654</v>
@@ -7086,19 +5438,10 @@
       <c r="I54">
         <v>5</v>
       </c>
-      <c r="J54">
-        <v>0.8</v>
-      </c>
-      <c r="K54">
-        <v>0.61299999999999999</v>
-      </c>
-      <c r="L54">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12">
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B55">
         <v>202.65299999999999</v>
@@ -7115,19 +5458,10 @@
       <c r="I55">
         <v>5</v>
       </c>
-      <c r="J55">
-        <v>0.8</v>
-      </c>
-      <c r="K55">
-        <v>0.61199999999999999</v>
-      </c>
-      <c r="L55">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12">
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B56">
         <v>202.65199999999999</v>
@@ -7147,19 +5481,10 @@
       <c r="I56">
         <v>5</v>
       </c>
-      <c r="J56">
-        <v>0.6</v>
-      </c>
-      <c r="K56">
-        <v>0.21099999999999999</v>
-      </c>
-      <c r="L56">
-        <v>0.33333333300000001</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12">
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>202.65100000000001</v>
@@ -7176,19 +5501,10 @@
       <c r="I57">
         <v>7</v>
       </c>
-      <c r="J57">
-        <v>0.85714285700000004</v>
-      </c>
-      <c r="K57">
-        <v>0.571428571</v>
-      </c>
-      <c r="L57">
-        <v>0.66666666699999999</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12">
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B58">
         <v>202.65</v>
@@ -7208,19 +5524,10 @@
       <c r="I58">
         <v>9</v>
       </c>
-      <c r="J58">
-        <v>0.77777777800000003</v>
-      </c>
-      <c r="K58">
-        <v>0.66666672999999999</v>
-      </c>
-      <c r="L58">
-        <v>0.85714285700000004</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12">
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B59">
         <v>201.35</v>
@@ -7234,19 +5541,10 @@
       <c r="I59">
         <v>3</v>
       </c>
-      <c r="J59">
-        <v>1</v>
-      </c>
-      <c r="K59">
-        <v>0.66666674000000004</v>
-      </c>
-      <c r="L59">
-        <v>0.66666666699999999</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12">
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B60">
         <v>201.34</v>
@@ -7257,19 +5555,10 @@
       <c r="I60">
         <v>1</v>
       </c>
-      <c r="J60">
-        <v>1</v>
-      </c>
-      <c r="K60">
-        <v>1.0016</v>
-      </c>
-      <c r="L60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12">
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B61">
         <v>201.33</v>
@@ -7283,19 +5572,10 @@
       <c r="I61">
         <v>2</v>
       </c>
-      <c r="J61">
-        <v>1</v>
-      </c>
-      <c r="K61">
-        <v>0.51900000000000002</v>
-      </c>
-      <c r="L61">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12">
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>201.32</v>
@@ -7309,19 +5589,10 @@
       <c r="I62">
         <v>4</v>
       </c>
-      <c r="J62">
-        <v>1</v>
-      </c>
-      <c r="K62">
-        <v>0.75</v>
-      </c>
-      <c r="L62">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12">
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B63">
         <v>201.31</v>
@@ -7338,19 +5609,10 @@
       <c r="I63">
         <v>3</v>
       </c>
-      <c r="J63">
-        <v>0.66666666699999999</v>
-      </c>
-      <c r="K63">
-        <v>0.33333336000000002</v>
-      </c>
-      <c r="L63">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12">
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B64">
         <v>201.3</v>
@@ -7364,19 +5626,10 @@
       <c r="I64">
         <v>2</v>
       </c>
-      <c r="J64">
-        <v>1</v>
-      </c>
-      <c r="K64">
-        <v>0.51800000000000002</v>
-      </c>
-      <c r="L64">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12">
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B65">
         <v>191.65</v>
@@ -7389,15 +5642,6 @@
       </c>
       <c r="I65">
         <v>3</v>
-      </c>
-      <c r="J65">
-        <v>1</v>
-      </c>
-      <c r="K65">
-        <v>0.66666674999999997</v>
-      </c>
-      <c r="L65">
-        <v>0.66666666699999999</v>
       </c>
     </row>
   </sheetData>
